--- a/Famous Questions.xlsx
+++ b/Famous Questions.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programmin\DSA\Luv DSA\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16A12A8D-0A96-4ADF-963A-7B32082FFBAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="78">
   <si>
     <t>7 days Strategy - by Love Babbar</t>
   </si>
@@ -242,30 +251,37 @@
   </si>
   <si>
     <t>Largest area rectangular sub-matrix with equal number of 1’s and 0’s</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/problems/chocolate-distribution-problem3825/1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF1155CC"/>
+      <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -276,42 +292,45 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -501,37 +520,42 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A2:I77"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="64.88"/>
-    <col customWidth="1" min="2" max="2" width="16.63"/>
-    <col customWidth="1" min="3" max="3" width="13.38"/>
-    <col customWidth="1" min="6" max="6" width="17.0"/>
-    <col customWidth="1" min="7" max="7" width="21.88"/>
+    <col min="1" max="1" width="64.90625" customWidth="1"/>
+    <col min="2" max="2" width="16.6328125" customWidth="1"/>
+    <col min="3" max="3" width="13.36328125" customWidth="1"/>
+    <col min="6" max="6" width="17" customWidth="1"/>
+    <col min="7" max="7" width="21.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -539,87 +563,90 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9">
+      <c r="B8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>20</v>
       </c>
@@ -648,12 +675,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>30</v>
       </c>
@@ -661,42 +688,42 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>39</v>
       </c>
@@ -704,32 +731,32 @@
         <v>40</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>46</v>
       </c>
@@ -737,7 +764,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>47</v>
       </c>
@@ -745,37 +772,37 @@
         <v>48</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>55</v>
       </c>
@@ -786,17 +813,17 @@
         <v>56</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>59</v>
       </c>
@@ -807,166 +834,166 @@
         <v>31</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>76</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="B2"/>
-    <hyperlink r:id="rId2" ref="A5"/>
-    <hyperlink r:id="rId3" ref="B5"/>
-    <hyperlink r:id="rId4" ref="A6"/>
-    <hyperlink r:id="rId5" ref="A7"/>
-    <hyperlink r:id="rId6" ref="A8"/>
-    <hyperlink r:id="rId7" ref="A9"/>
-    <hyperlink r:id="rId8" ref="A10"/>
-    <hyperlink r:id="rId9" ref="A11"/>
-    <hyperlink r:id="rId10" ref="A13"/>
-    <hyperlink r:id="rId11" ref="A14"/>
-    <hyperlink r:id="rId12" ref="A16"/>
-    <hyperlink r:id="rId13" ref="A17"/>
-    <hyperlink r:id="rId14" ref="A18"/>
-    <hyperlink r:id="rId15" ref="A20"/>
-    <hyperlink r:id="rId16" ref="A21"/>
-    <hyperlink r:id="rId17" ref="A23"/>
-    <hyperlink r:id="rId18" ref="A24"/>
-    <hyperlink r:id="rId19" ref="A25"/>
-    <hyperlink r:id="rId20" ref="A27"/>
-    <hyperlink r:id="rId21" ref="B27"/>
-    <hyperlink r:id="rId22" ref="C27"/>
-    <hyperlink r:id="rId23" ref="D27"/>
-    <hyperlink r:id="rId24" ref="E27"/>
-    <hyperlink r:id="rId25" ref="F27"/>
-    <hyperlink r:id="rId26" ref="G27"/>
-    <hyperlink r:id="rId27" ref="H27"/>
-    <hyperlink r:id="rId28" ref="I27"/>
-    <hyperlink r:id="rId29" ref="A28"/>
-    <hyperlink r:id="rId30" ref="A29"/>
-    <hyperlink r:id="rId31" ref="B29"/>
-    <hyperlink r:id="rId32" ref="A30"/>
-    <hyperlink r:id="rId33" ref="A31"/>
-    <hyperlink r:id="rId34" ref="A33"/>
-    <hyperlink r:id="rId35" ref="A34"/>
-    <hyperlink r:id="rId36" ref="A35"/>
-    <hyperlink r:id="rId37" ref="A36"/>
-    <hyperlink r:id="rId38" ref="A37"/>
-    <hyperlink r:id="rId39" ref="A39"/>
-    <hyperlink r:id="rId40" ref="B39"/>
-    <hyperlink r:id="rId41" ref="A40"/>
-    <hyperlink r:id="rId42" ref="A41"/>
-    <hyperlink r:id="rId43" ref="A42"/>
-    <hyperlink r:id="rId44" ref="A43"/>
-    <hyperlink r:id="rId45" ref="A45"/>
-    <hyperlink r:id="rId46" ref="A46"/>
-    <hyperlink r:id="rId47" ref="B46"/>
-    <hyperlink r:id="rId48" ref="A47"/>
-    <hyperlink r:id="rId49" ref="B47"/>
-    <hyperlink r:id="rId50" ref="A48"/>
-    <hyperlink r:id="rId51" ref="A49"/>
-    <hyperlink r:id="rId52" ref="A50"/>
-    <hyperlink r:id="rId53" ref="A51"/>
-    <hyperlink r:id="rId54" ref="A52"/>
-    <hyperlink r:id="rId55" ref="A54"/>
-    <hyperlink r:id="rId56" ref="A55"/>
-    <hyperlink r:id="rId57" ref="B55"/>
-    <hyperlink r:id="rId58" ref="A56"/>
-    <hyperlink r:id="rId59" ref="A57"/>
-    <hyperlink r:id="rId60" ref="B59"/>
-    <hyperlink r:id="rId61" ref="C59"/>
-    <hyperlink r:id="rId62" ref="A60"/>
-    <hyperlink r:id="rId63" ref="A61"/>
-    <hyperlink r:id="rId64" ref="A62"/>
-    <hyperlink r:id="rId65" ref="A63"/>
-    <hyperlink r:id="rId66" ref="A64"/>
-    <hyperlink r:id="rId67" ref="A65"/>
-    <hyperlink r:id="rId68" ref="A66"/>
-    <hyperlink r:id="rId69" ref="A68"/>
-    <hyperlink r:id="rId70" ref="A69"/>
-    <hyperlink r:id="rId71" ref="A71"/>
-    <hyperlink r:id="rId72" ref="A72"/>
-    <hyperlink r:id="rId73" ref="A73"/>
-    <hyperlink r:id="rId74" ref="A74"/>
-    <hyperlink r:id="rId75" ref="A75"/>
-    <hyperlink r:id="rId76" ref="A76"/>
-    <hyperlink r:id="rId77" ref="A77"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A5" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="A6" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="A7" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="A8" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="A9" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="A10" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="A11" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="A13" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="A14" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="A16" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="A17" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="A18" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="A20" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="A21" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="A23" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="A24" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="A25" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="A27" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="B27" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="C27" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="D27" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="E27" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="F27" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="G27" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="H27" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="I27" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="A28" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="A29" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="B29" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="A30" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="A31" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="A33" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="A34" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="A35" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="A36" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="A37" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="A39" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="B39" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="A40" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="A41" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="A42" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="A43" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="A45" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="A46" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="B46" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="A47" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="B47" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="A48" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="A49" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="A50" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="A51" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="A52" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="A54" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="A55" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="B55" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="A56" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="A57" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="B59" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="C59" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="A60" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="A61" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="A62" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="A63" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="A64" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="A65" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="A66" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="A68" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="A69" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="A71" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="A72" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="A73" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="A74" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="A75" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="A76" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="A77" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
   </hyperlinks>
-  <drawing r:id="rId78"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Famous Questions.xlsx
+++ b/Famous Questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programmin\DSA\Luv DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16A12A8D-0A96-4ADF-963A-7B32082FFBAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4969DFFE-ACD0-4C58-8E12-B066AB7FCB9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="79">
   <si>
     <t>7 days Strategy - by Love Babbar</t>
   </si>
@@ -254,6 +254,9 @@
   </si>
   <si>
     <t>https://www.geeksforgeeks.org/problems/chocolate-distribution-problem3825/1</t>
+  </si>
+  <si>
+    <t>qqqqqq</t>
   </si>
 </sst>
 </file>
@@ -532,8 +535,8 @@
   </sheetPr>
   <dimension ref="A2:I77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -550,7 +553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="13" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -644,6 +647,11 @@
     <row r="25" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">

--- a/Famous Questions.xlsx
+++ b/Famous Questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programmin\DSA\Luv DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4969DFFE-ACD0-4C58-8E12-B066AB7FCB9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C750FD8-A6E5-4FAD-8B69-4B3800E34EDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="83">
   <si>
     <t>7 days Strategy - by Love Babbar</t>
   </si>
@@ -121,18 +121,12 @@
     <t>Largest BST in a binary tree</t>
   </si>
   <si>
-    <t>Merge 2 BST</t>
-  </si>
-  <si>
     <t>Activity Selection Problem</t>
   </si>
   <si>
     <t>Job Sequencing problem</t>
   </si>
   <si>
-    <t>Minimum Platforms Problem</t>
-  </si>
-  <si>
     <t>LRU Cache implementation</t>
   </si>
   <si>
@@ -256,14 +250,32 @@
     <t>https://www.geeksforgeeks.org/problems/chocolate-distribution-problem3825/1</t>
   </si>
   <si>
-    <t>qqqqqq</t>
+    <t>https://leetcode.com/problems/maximum-sum-bst-in-binary-tree/description/</t>
+  </si>
+  <si>
+    <t>Merge multiple BST</t>
+  </si>
+  <si>
+    <t>Merge two BST</t>
+  </si>
+  <si>
+    <t>Greedy Job selection</t>
+  </si>
+  <si>
+    <t>Car pooling</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/minimum-number-platforms-required-railwaybus-station/</t>
+  </si>
+  <si>
+    <t>Minimum Cost to Merge Stones</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -289,6 +301,13 @@
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -307,16 +326,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -535,8 +557,8 @@
   </sheetPr>
   <dimension ref="A2:I77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -581,7 +603,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -649,11 +671,6 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>78</v>
-      </c>
-    </row>
     <row r="27" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>20</v>
@@ -700,143 +717,173 @@
       <c r="A30" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="B30" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="31" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B31" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+      <c r="C33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+      <c r="B34" t="s">
+        <v>79</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B35" t="s">
+        <v>81</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+      <c r="C36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B37" s="4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+      <c r="C37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+      <c r="B39" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+    <row r="40" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B39" s="1" t="s">
+    </row>
+    <row r="41" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
+    <row r="42" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
+    <row r="43" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
+    <row r="45" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
+    <row r="46" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>31</v>
@@ -844,82 +891,82 @@
     </row>
     <row r="60" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="65" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="66" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="68" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="69" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="71" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="72" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="73" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="74" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="75" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="76" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="77" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -956,12 +1003,12 @@
     <hyperlink ref="A29" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
     <hyperlink ref="B29" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
     <hyperlink ref="A30" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="A31" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="A31" r:id="rId33" display="Merge 2 BST" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
     <hyperlink ref="A33" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
     <hyperlink ref="A34" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="A35" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="A35" r:id="rId36" display="Minimum Platforms Problem" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
     <hyperlink ref="A36" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="A37" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="A37" r:id="rId38" display="minimum cost of ropes" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
     <hyperlink ref="A39" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
     <hyperlink ref="B39" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
     <hyperlink ref="A40" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
@@ -1001,6 +1048,7 @@
     <hyperlink ref="A75" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
     <hyperlink ref="A76" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
     <hyperlink ref="A77" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="B37" r:id="rId78" xr:uid="{3F111B08-D4A3-459E-A1D1-35DA013615DF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Famous Questions.xlsx
+++ b/Famous Questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programmin\DSA\Luv DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C750FD8-A6E5-4FAD-8B69-4B3800E34EDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDAED8E8-BAE4-40C8-A445-824E8999DD2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -268,7 +268,7 @@
     <t>https://www.geeksforgeeks.org/minimum-number-platforms-required-railwaybus-station/</t>
   </si>
   <si>
-    <t>Minimum Cost to Merge Stones</t>
+    <t>Minimum Cost to Merge Stones(unsolved)</t>
   </si>
 </sst>
 </file>
@@ -558,7 +558,7 @@
   <dimension ref="A2:I77"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
